--- a/biology/Biochimie/Répétition_riche_en_leucine/Répétition_riche_en_leucine.xlsx
+++ b/biology/Biochimie/Répétition_riche_en_leucine/Répétition_riche_en_leucine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9p%C3%A9tition_riche_en_leucine</t>
+          <t>Répétition_riche_en_leucine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une répétition riche en leucine, ou leucine-rich repeat (LRR) en anglais, est un motif structurel présent dans certaines protéines où il forme un repliement en fer à cheval α/β[4],[5]. Ce type de repliement est constitué de séquences de 20 à 30 résidus d'acides aminés contenant une forte proportion de leucine, un acide aminé hydrophobe, constituant un domaine en forme de solénoïde. Chaque élément répété est généralement constitué de l'enchaînement feuillet β–coude–hélice α, dont la répétition constitue un domaine qui présente globalement la géométrie d'un fer à cheval dont l'intérieur est formé de feuillets β parallèles et l'extérieur est formé d'un réseau d'hélices α. Une face des feuillets β et un côté des hélices α sont exposés au solvant et sont par conséquent constitués essentiellement de résidus hydrophiles, tandis que la région comprise entre les hélices et les feuillets forme le cœur hydrophobe de la protéine dans lequel sont enfouis les résidus de leucine.
-Les répétitions riches en leucine interviennent fréquemment dans l'établissement d'interactions protéine-protéine[6],[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une répétition riche en leucine, ou leucine-rich repeat (LRR) en anglais, est un motif structurel présent dans certaines protéines où il forme un repliement en fer à cheval α/β,. Ce type de repliement est constitué de séquences de 20 à 30 résidus d'acides aminés contenant une forte proportion de leucine, un acide aminé hydrophobe, constituant un domaine en forme de solénoïde. Chaque élément répété est généralement constitué de l'enchaînement feuillet β–coude–hélice α, dont la répétition constitue un domaine qui présente globalement la géométrie d'un fer à cheval dont l'intérieur est formé de feuillets β parallèles et l'extérieur est formé d'un réseau d'hélices α. Une face des feuillets β et un côté des hélices α sont exposés au solvant et sont par conséquent constitués essentiellement de résidus hydrophiles, tandis que la région comprise entre les hélices et les feuillets forme le cœur hydrophobe de la protéine dans lequel sont enfouis les résidus de leucine.
+Les répétitions riches en leucine interviennent fréquemment dans l'établissement d'interactions protéine-protéine,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9p%C3%A9tition_riche_en_leucine</t>
+          <t>Répétition_riche_en_leucine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les motifs LRR ont été identifiés dans un grand nombre de protéines aux fonctions biologiques très diversifiées[8]. L'inhibiteur de ribonucléase en est l'exemple le plus connu, mais d'autres protéines telles que la tropomoduline (en), protéine régulatrice de la tropomyosine, et le récepteur de type Toll possèdent également ce motif structurel. Le récepteur de type Toll possède en fait dix motifs LRR successifs qui interviennent dans la liaison aux motifs moléculaires associés aux agents infectieux.
-Si le motif LRR typique contient environ une proportion d'une hélice α pour chaque feuillet β, certaines variantes qui forment des superhélices βα présentent parfois de longues boucles à la place des hélices entre feuillets adjacents. On a également identifié une variante structurelle appelée LRV et constituée d'une alternance d'hélices α et 310 formant une superhélice droite dépourvue des feuillets β habituellement présents dans les répétitions riches en leucines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les motifs LRR ont été identifiés dans un grand nombre de protéines aux fonctions biologiques très diversifiées. L'inhibiteur de ribonucléase en est l'exemple le plus connu, mais d'autres protéines telles que la tropomoduline (en), protéine régulatrice de la tropomyosine, et le récepteur de type Toll possèdent également ce motif structurel. Le récepteur de type Toll possède en fait dix motifs LRR successifs qui interviennent dans la liaison aux motifs moléculaires associés aux agents infectieux.
+Si le motif LRR typique contient environ une proportion d'une hélice α pour chaque feuillet β, certaines variantes qui forment des superhélices βα présentent parfois de longues boucles à la place des hélices entre feuillets adjacents. On a également identifié une variante structurelle appelée LRV et constituée d'une alternance d'hélices α et 310 formant une superhélice droite dépourvue des feuillets β habituellement présents dans les répétitions riches en leucines.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9p%C3%A9tition_riche_en_leucine</t>
+          <t>Répétition_riche_en_leucine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Domaines associés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les répétitions riches en leucine sont souvent entourés de domaines N-terminaux et C-terminaux riches en cystéine. Ces domaines riches en cystéine existent également en présence de domaines LRR adjacents. Il s'agit de petits domaines entièrement constitués de feuillets β qui ont été structurellement décrits pour les internalines (en) A (InlA), B (InlB), E (InlE) et H (InlH) de la bactérie Listeria monocytogenes. Leur fonction semble être essentiellement structurelle : ils sont fusionnés avec l'extrémité C-terminale des répétitions riches en leucine, ce qui a pour effet de les stabiliser et de les rigidifier. Elles n'interviennent pas directement dans les interactions protéine-protéine mais ajuste le positionnement du domaine LRR adjacent dans ce but. Ces domaines appartiennent à la famille des domaines de type immunoglobuline dans la mesure où ils sont formés de deux feuillets β en sandwich de la même façon que les immunoglobulines ; le brin β de l'un des feuillets est cependant bien plus court que dans les domaines de type immunoglobuline habituels[3],[9],[10].
-Un cluster fer-soufre est présent à l'extrémité N-terminale de certaines protéines contenant la variante structurelle LRV riche en leucine. Ces protéines ont une structure en deux domaines : un petit domaine N-terminal contenant un groupe de quatre résidus de cystéine formant un agrégat atomique 4Fe-4S et un grand domaine C-terminal contenant le motif LRV[2]. Des études biochimiques ont montré que l'agrégat 4Fe-4S est sensible à l'oxygène mais ne semble pas porteur d'une activité rédox.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les répétitions riches en leucine sont souvent entourés de domaines N-terminaux et C-terminaux riches en cystéine. Ces domaines riches en cystéine existent également en présence de domaines LRR adjacents. Il s'agit de petits domaines entièrement constitués de feuillets β qui ont été structurellement décrits pour les internalines (en) A (InlA), B (InlB), E (InlE) et H (InlH) de la bactérie Listeria monocytogenes. Leur fonction semble être essentiellement structurelle : ils sont fusionnés avec l'extrémité C-terminale des répétitions riches en leucine, ce qui a pour effet de les stabiliser et de les rigidifier. Elles n'interviennent pas directement dans les interactions protéine-protéine mais ajuste le positionnement du domaine LRR adjacent dans ce but. Ces domaines appartiennent à la famille des domaines de type immunoglobuline dans la mesure où ils sont formés de deux feuillets β en sandwich de la même façon que les immunoglobulines ; le brin β de l'un des feuillets est cependant bien plus court que dans les domaines de type immunoglobuline habituels.
+Un cluster fer-soufre est présent à l'extrémité N-terminale de certaines protéines contenant la variante structurelle LRV riche en leucine. Ces protéines ont une structure en deux domaines : un petit domaine N-terminal contenant un groupe de quatre résidus de cystéine formant un agrégat atomique 4Fe-4S et un grand domaine C-terminal contenant le motif LRV. Des études biochimiques ont montré que l'agrégat 4Fe-4S est sensible à l'oxygène mais ne semble pas porteur d'une activité rédox.
 </t>
         </is>
       </c>
